--- a/api-ekyc/Counter_service.xlsx
+++ b/api-ekyc/Counter_service.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="33940" yWindow="3060" windowWidth="28040" windowHeight="16580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Signup_CS" sheetId="1" state="visible" r:id="rId1"/>
@@ -515,8 +515,8 @@
   </sheetPr>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20220616-06</t>
+          <t>20220705-01</t>
         </is>
       </c>
       <c r="D3" s="15" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>EQ2022061600031</t>
+          <t>EQ2022070500002</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="P3" s="18" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022061600031"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022070500002"}}</t>
         </is>
       </c>
     </row>

--- a/api-ekyc/Counter_service.xlsx
+++ b/api-ekyc/Counter_service.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20220705-01</t>
+          <t>20220708-01</t>
         </is>
       </c>
       <c r="D3" s="15" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
-          <t>EQ2022070500002</t>
+          <t>EQ2022070800004</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="P3" s="18" t="inlineStr">
         <is>
-          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022070500002"}}</t>
+          <t>{"status":{"code":"0","message":"Success","remark":"","user_code":"S0001","user_message_en":"Success","user_message_th":"ดำเนินการสำเร็จ"},"data":{"journey_code":"JN003","journey_name":"EKYC QR Signup","kyc_trans_id":"EQ2022070800004"}}</t>
         </is>
       </c>
     </row>
